--- a/DiffFromMean.xlsx
+++ b/DiffFromMean.xlsx
@@ -535,7 +535,7 @@
         <v>-0.0285475073425625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.37199</v>
+        <v>0.38882</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -563,10 +563,10 @@
         <v>-0.0193618537238662</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04817</v>
+        <v>0.02341</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.72578</v>
       </c>
     </row>
     <row r="5">
@@ -577,7 +577,7 @@
         <v>0.0171434739607426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.31037</v>
+        <v>0.34536</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>0.00001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00062</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
         <v>-0.0197363758863093</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09238</v>
+        <v>0.04623</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>0.0104537548699088</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.00124</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00001</v>
+        <v>0.0482</v>
       </c>
     </row>
     <row r="9">
@@ -633,10 +633,10 @@
         <v>0.0325127176685273</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00015</v>
+        <v>0.00011</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0059</v>
+        <v>0.00468</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
         <v>0.0122354189683049</v>
       </c>
       <c r="C10" t="n">
-        <v>0.45137</v>
+        <v>0.31179</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>-0.0157439108599818</v>
       </c>
       <c r="C11" t="n">
-        <v>0.42058</v>
+        <v>0.43822</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -675,7 +675,7 @@
         <v>0.007903846844315</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6385</v>
+        <v>0.14184</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>-0.00461552769130602</v>
       </c>
       <c r="C13" t="n">
-        <v>0.19876</v>
+        <v>0.40501</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -703,10 +703,10 @@
         <v>0.0329860707262211</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01276</v>
+        <v>0.01095</v>
       </c>
       <c r="D14" t="n">
-        <v>0.42097</v>
+        <v>0.37225</v>
       </c>
     </row>
     <row r="15">
@@ -717,10 +717,10 @@
         <v>0.0360089860370743</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00799</v>
+        <v>0.00984</v>
       </c>
       <c r="D15" t="n">
-        <v>0.27168</v>
+        <v>0.34448</v>
       </c>
     </row>
     <row r="16">
@@ -731,7 +731,7 @@
         <v>0.0108711040547474</v>
       </c>
       <c r="C16" t="n">
-        <v>0.93548</v>
+        <v>0.06898</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>-0.010947084018342</v>
       </c>
       <c r="C17" t="n">
-        <v>0.30118</v>
+        <v>0.15456</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -759,7 +759,7 @@
         <v>0.0131038973034387</v>
       </c>
       <c r="C18" t="n">
-        <v>0.13654</v>
+        <v>0.13064</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -773,7 +773,7 @@
         <v>0.00832545094934078</v>
       </c>
       <c r="C19" t="n">
-        <v>0.43469</v>
+        <v>0.48066</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -801,10 +801,10 @@
         <v>-0.0339567757412818</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00137</v>
+        <v>0.00072</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05082</v>
+        <v>0.02893</v>
       </c>
     </row>
     <row r="22">
@@ -815,7 +815,7 @@
         <v>0.00790239751659028</v>
       </c>
       <c r="C22" t="n">
-        <v>0.49762</v>
+        <v>0.56362</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>0.00906579620627546</v>
       </c>
       <c r="C23" t="n">
-        <v>0.70603</v>
+        <v>0.32557</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -843,10 +843,10 @@
         <v>-0.0238293291025515</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00013</v>
+        <v>0.00137</v>
       </c>
       <c r="D24" t="n">
-        <v>0.005</v>
+        <v>0.05203</v>
       </c>
     </row>
     <row r="25">
@@ -857,7 +857,7 @@
         <v>-0.00928932868365762</v>
       </c>
       <c r="C25" t="n">
-        <v>0.11656</v>
+        <v>0.10301</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.015658213850955</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04144</v>
+        <v>0.0223</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.71362</v>
       </c>
     </row>
     <row r="27">
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00014</v>
+        <v>0.00004</v>
       </c>
     </row>
     <row r="28">
@@ -899,7 +899,7 @@
         <v>-0.00965944696251742</v>
       </c>
       <c r="C28" t="n">
-        <v>0.31442</v>
+        <v>0.15671</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>0.0298639029676183</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03289</v>
+        <v>0.03742</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -927,10 +927,10 @@
         <v>0.0496768905419935</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00004</v>
+        <v>0.00005</v>
       </c>
       <c r="D30" t="n">
-        <v>0.00169</v>
+        <v>0.00214</v>
       </c>
     </row>
     <row r="31">
@@ -941,10 +941,10 @@
         <v>0.0397822317665383</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00021</v>
+        <v>0.00039</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00803</v>
+        <v>0.01581</v>
       </c>
     </row>
     <row r="32">
@@ -955,7 +955,7 @@
         <v>0.011015748301795</v>
       </c>
       <c r="C32" t="n">
-        <v>0.43018</v>
+        <v>0.4279</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>0.00343377453152971</v>
       </c>
       <c r="C33" t="n">
-        <v>0.29119</v>
+        <v>0.65717</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>-0.00105843529203087</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9347</v>
+        <v>0.93291</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -997,10 +997,10 @@
         <v>-0.00787758286955731</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.12627</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1011,7 +1011,7 @@
         <v>-0.0101078458022784</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09605</v>
+        <v>0.08617</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>0.018361346671051</v>
       </c>
       <c r="C37" t="n">
-        <v>0.29937</v>
+        <v>0.30028</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>-0.0107510165599347</v>
       </c>
       <c r="C38" t="n">
-        <v>0.08462</v>
+        <v>0.07042</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1053,10 +1053,10 @@
         <v>0.0329051558676645</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.00001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00001</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="40">
@@ -1067,10 +1067,10 @@
         <v>0.0243727763342974</v>
       </c>
       <c r="C40" t="n">
-        <v>0.00147</v>
+        <v>0.00465</v>
       </c>
       <c r="D40" t="n">
-        <v>0.05293</v>
+        <v>0.16736</v>
       </c>
     </row>
     <row r="41">
@@ -1081,7 +1081,7 @@
         <v>-0.00584357375307953</v>
       </c>
       <c r="C41" t="n">
-        <v>0.14528</v>
+        <v>0.31618</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1095,7 +1095,7 @@
         <v>-0.0313618634773302</v>
       </c>
       <c r="C42" t="n">
-        <v>0.12485</v>
+        <v>0.12981</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1109,7 +1109,7 @@
         <v>-0.0135200323300219</v>
       </c>
       <c r="C43" t="n">
-        <v>0.13906</v>
+        <v>0.12218</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1123,10 +1123,10 @@
         <v>0.046968042025618</v>
       </c>
       <c r="C44" t="n">
-        <v>0.00205</v>
+        <v>0.00228</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0717</v>
+        <v>0.08423</v>
       </c>
     </row>
     <row r="45">
@@ -1151,10 +1151,10 @@
         <v>0.0102787951760545</v>
       </c>
       <c r="C46" t="n">
-        <v>0.04885</v>
+        <v>0.01859</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0.61345</v>
       </c>
     </row>
     <row r="47">
@@ -1179,7 +1179,7 @@
         <v>0.00582431136902395</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7342</v>
+        <v>0.75465</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>-0.00920801191967424</v>
       </c>
       <c r="C49" t="n">
-        <v>0.04843</v>
+        <v>0.19965</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1207,10 +1207,10 @@
         <v>0.0212063241655466</v>
       </c>
       <c r="C50" t="n">
-        <v>0.00005</v>
+        <v>0.00025</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0021</v>
+        <v>0.01057</v>
       </c>
     </row>
     <row r="51">
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00008</v>
+        <v>0.00001</v>
       </c>
     </row>
     <row r="52">
@@ -1235,7 +1235,7 @@
         <v>0.0112821664757173</v>
       </c>
       <c r="C52" t="n">
-        <v>0.11799</v>
+        <v>0.0879</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>0.02874599431793</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06575</v>
+        <v>0.07472</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>-0.111453549839574</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00194</v>
+        <v>0.00204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06782</v>
+        <v>0.07343</v>
       </c>
     </row>
     <row r="3">
@@ -1305,10 +1305,10 @@
         <v>0.0208915957163978</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01438</v>
+        <v>0.01004</v>
       </c>
       <c r="D3" t="n">
-        <v>0.41692</v>
+        <v>0.32119</v>
       </c>
     </row>
     <row r="4">
@@ -1322,7 +1322,7 @@
         <v>0.00001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0006</v>
+        <v>0.00025</v>
       </c>
     </row>
     <row r="5">
@@ -1333,7 +1333,7 @@
         <v>0.000543184217681958</v>
       </c>
       <c r="C5" t="n">
-        <v>0.98121</v>
+        <v>0.98038</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1347,10 +1347,10 @@
         <v>0.0333548416575533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="7">
@@ -1361,10 +1361,10 @@
         <v>0.0364197897916527</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00006</v>
+        <v>0.00005</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00227</v>
+        <v>0.00187</v>
       </c>
     </row>
     <row r="8">
@@ -1375,10 +1375,10 @@
         <v>0.0122091226910515</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0029</v>
+        <v>0.00025</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09848</v>
+        <v>0.00928</v>
       </c>
     </row>
     <row r="9">
@@ -1389,7 +1389,7 @@
         <v>0.00178747133303683</v>
       </c>
       <c r="C9" t="n">
-        <v>0.95298</v>
+        <v>0.84091</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>-0.0107035589628458</v>
       </c>
       <c r="C10" t="n">
-        <v>0.26752</v>
+        <v>0.35492</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>0.013426251336456</v>
       </c>
       <c r="C11" t="n">
-        <v>0.54175</v>
+        <v>0.52559</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>0.00387750777827861</v>
       </c>
       <c r="C13" t="n">
-        <v>0.89848</v>
+        <v>0.47857</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1459,10 +1459,10 @@
         <v>0.0560325470888499</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00317</v>
+        <v>0.00281</v>
       </c>
       <c r="D14" t="n">
-        <v>0.10473</v>
+        <v>0.09851</v>
       </c>
     </row>
     <row r="15">
@@ -1476,7 +1476,7 @@
         <v>0.00001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00061</v>
+        <v>0.00053</v>
       </c>
     </row>
     <row r="16">
@@ -1487,10 +1487,10 @@
         <v>-0.015812206058522</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00005</v>
+        <v>0.00549</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00199</v>
+        <v>0.18107</v>
       </c>
     </row>
     <row r="17">
@@ -1501,10 +1501,10 @@
         <v>0.0129555375071979</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06453</v>
+        <v>0.02858</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.82886</v>
       </c>
     </row>
     <row r="18">
@@ -1515,7 +1515,7 @@
         <v>0.00280642795949018</v>
       </c>
       <c r="C18" t="n">
-        <v>0.89718</v>
+        <v>0.81326</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         <v>0.00499969590878871</v>
       </c>
       <c r="C19" t="n">
-        <v>0.69734</v>
+        <v>0.63146</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -1543,10 +1543,10 @@
         <v>0.0139969413624503</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0283</v>
+        <v>0.02158</v>
       </c>
       <c r="D20" t="n">
-        <v>0.76409</v>
+        <v>0.64731</v>
       </c>
     </row>
     <row r="21">
@@ -1557,10 +1557,10 @@
         <v>0.0307598202204039</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00005</v>
+        <v>0.00002</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00201</v>
+        <v>0.00092</v>
       </c>
     </row>
     <row r="22">
@@ -1571,7 +1571,7 @@
         <v>-0.00923270957806496</v>
       </c>
       <c r="C22" t="n">
-        <v>0.53478</v>
+        <v>0.54615</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>-0.0121015441976284</v>
       </c>
       <c r="C23" t="n">
-        <v>0.08536</v>
+        <v>0.18398</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>-0.0000320509526925139</v>
       </c>
       <c r="C25" t="n">
-        <v>0.47075</v>
+        <v>0.98391</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -1627,10 +1627,10 @@
         <v>-0.0333944704663879</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00003</v>
+        <v>0.00012</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00137</v>
+        <v>0.00449</v>
       </c>
     </row>
     <row r="27">
@@ -1655,7 +1655,7 @@
         <v>-0.00832621693933247</v>
       </c>
       <c r="C28" t="n">
-        <v>0.14394</v>
+        <v>0.22771</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -1669,10 +1669,10 @@
         <v>0.0555098931891433</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00429</v>
+        <v>0.00413</v>
       </c>
       <c r="D29" t="n">
-        <v>0.13728</v>
+        <v>0.14026</v>
       </c>
     </row>
     <row r="30">
@@ -1683,7 +1683,7 @@
         <v>-0.0288690813937415</v>
       </c>
       <c r="C30" t="n">
-        <v>0.05464</v>
+        <v>0.06053</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>0.00387641716306755</v>
       </c>
       <c r="C32" t="n">
-        <v>0.84481</v>
+        <v>0.81798</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -1725,10 +1725,10 @@
         <v>-0.0158802820478368</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00994</v>
+        <v>0.05737</v>
       </c>
       <c r="D33" t="n">
-        <v>0.30799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1739,10 +1739,10 @@
         <v>0.0521384351445399</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00004</v>
+        <v>0.00003</v>
       </c>
       <c r="D34" t="n">
-        <v>0.00159</v>
+        <v>0.00142</v>
       </c>
     </row>
     <row r="35">
@@ -1753,10 +1753,10 @@
         <v>-0.00601947419407839</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0007</v>
+        <v>0.20701</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1767,7 +1767,7 @@
         <v>0.00260126017449941</v>
       </c>
       <c r="C36" t="n">
-        <v>0.82119</v>
+        <v>0.66499</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>0.0243589608035305</v>
       </c>
       <c r="C37" t="n">
-        <v>0.27202</v>
+        <v>0.26654</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1795,10 +1795,10 @@
         <v>-0.00907176697736989</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01096</v>
+        <v>0.08693</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1823,7 +1823,7 @@
         <v>-0.00511312284652329</v>
       </c>
       <c r="C40" t="n">
-        <v>0.49836</v>
+        <v>0.56985</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.00003</v>
       </c>
     </row>
     <row r="42">
@@ -1851,7 +1851,7 @@
         <v>-0.0252609812254355</v>
       </c>
       <c r="C42" t="n">
-        <v>0.23716</v>
+        <v>0.24705</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1865,10 +1865,10 @@
         <v>0.0290889699433671</v>
       </c>
       <c r="C43" t="n">
-        <v>0.00052</v>
+        <v>0.00021</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0192</v>
+        <v>0.00811</v>
       </c>
     </row>
     <row r="44">
@@ -1879,7 +1879,7 @@
         <v>0.0120183681390568</v>
       </c>
       <c r="C44" t="n">
-        <v>0.53834</v>
+        <v>0.53074</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1893,7 +1893,7 @@
         <v>0.00234303961860458</v>
       </c>
       <c r="C45" t="n">
-        <v>0.96632</v>
+        <v>0.72288</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1907,10 +1907,10 @@
         <v>0.0266640329369839</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00002</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.00099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1921,10 +1921,10 @@
         <v>0.0278532109729426</v>
       </c>
       <c r="C47" t="n">
-        <v>0.02616</v>
+        <v>0.01988</v>
       </c>
       <c r="D47" t="n">
-        <v>0.73248</v>
+        <v>0.61629</v>
       </c>
     </row>
     <row r="48">
@@ -1935,7 +1935,7 @@
         <v>-0.0288976624055792</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1959</v>
+        <v>0.19829</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1949,10 +1949,10 @@
         <v>-0.0107065588126908</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0332</v>
+        <v>0.13051</v>
       </c>
       <c r="D49" t="n">
-        <v>0.86324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1963,7 +1963,7 @@
         <v>-0.00536299052913147</v>
       </c>
       <c r="C50" t="n">
-        <v>0.13786</v>
+        <v>0.31155</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1977,7 +1977,7 @@
         <v>0.0156884363050499</v>
       </c>
       <c r="C51" t="n">
-        <v>0.05037</v>
+        <v>0.05407</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1991,7 +1991,7 @@
         <v>-0.000146908720927097</v>
       </c>
       <c r="C52" t="n">
-        <v>0.70387</v>
+        <v>0.98301</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>0.0388432832945808</v>
       </c>
       <c r="C53" t="n">
-        <v>0.04424</v>
+        <v>0.04407</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -2047,7 +2047,7 @@
         <v>-0.0335526175280666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.41794</v>
+        <v>0.43263</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         <v>-0.0150238540211172</v>
       </c>
       <c r="C3" t="n">
-        <v>0.15179</v>
+        <v>0.17646</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -2075,7 +2075,7 @@
         <v>0.00813645230027793</v>
       </c>
       <c r="C4" t="n">
-        <v>0.51556</v>
+        <v>0.44334</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -2089,7 +2089,7 @@
         <v>0.0360413980362569</v>
       </c>
       <c r="C5" t="n">
-        <v>0.15648</v>
+        <v>0.16091</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -2103,7 +2103,7 @@
         <v>0.00947344769588854</v>
       </c>
       <c r="C6" t="n">
-        <v>0.54089</v>
+        <v>0.26871</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -2117,7 +2117,7 @@
         <v>-0.00732546575387899</v>
       </c>
       <c r="C7" t="n">
-        <v>0.53156</v>
+        <v>0.51703</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -2131,10 +2131,10 @@
         <v>-0.008877843683954</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.06131</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2145,10 +2145,10 @@
         <v>0.0308451062557755</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00236</v>
+        <v>0.00055</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08492</v>
+        <v>0.02474</v>
       </c>
     </row>
     <row r="10">
@@ -2159,10 +2159,10 @@
         <v>0.0548258020610435</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00015</v>
+        <v>0.00004</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00662</v>
+        <v>0.00205</v>
       </c>
     </row>
     <row r="11">
@@ -2173,7 +2173,7 @@
         <v>0.0121801582191361</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6964</v>
+        <v>0.67239</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -2187,10 +2187,10 @@
         <v>-0.0199700060909096</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.00186</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.07268</v>
       </c>
     </row>
     <row r="13">
@@ -2201,7 +2201,7 @@
         <v>-0.000117026155761868</v>
       </c>
       <c r="C13" t="n">
-        <v>0.25337</v>
+        <v>0.98697</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -2215,10 +2215,10 @@
         <v>0.0504127697781274</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01128</v>
+        <v>0.00936</v>
       </c>
       <c r="D14" t="n">
-        <v>0.36098</v>
+        <v>0.30893</v>
       </c>
     </row>
     <row r="15">
@@ -2229,10 +2229,10 @@
         <v>0.0578497641286995</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0015</v>
+        <v>0.00141</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05861</v>
+        <v>0.05726</v>
       </c>
     </row>
     <row r="16">
@@ -2243,7 +2243,7 @@
         <v>0.00110445121793301</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09226</v>
+        <v>0.90086</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -2257,7 +2257,7 @@
         <v>0.0168035611989963</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08788</v>
+        <v>0.05406</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -2271,10 +2271,10 @@
         <v>0.0448356252797583</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00202</v>
+        <v>0.00132</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07677</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="19">
@@ -2285,7 +2285,7 @@
         <v>0.0340970630792067</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04259</v>
+        <v>0.03659</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00018</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="21">
@@ -2313,7 +2313,7 @@
         <v>0.00934140679036449</v>
       </c>
       <c r="C21" t="n">
-        <v>0.47216</v>
+        <v>0.39751</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -2327,7 +2327,7 @@
         <v>-0.00696561117715411</v>
       </c>
       <c r="C22" t="n">
-        <v>0.71579</v>
+        <v>0.71303</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -2341,7 +2341,7 @@
         <v>0.0258650937861765</v>
       </c>
       <c r="C23" t="n">
-        <v>0.15331</v>
+        <v>0.04874</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -2355,10 +2355,10 @@
         <v>-0.031577241057745</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00101</v>
+        <v>0.00671</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04126</v>
+        <v>0.24148</v>
       </c>
     </row>
     <row r="25">
@@ -2369,7 +2369,7 @@
         <v>0.00304094127847249</v>
       </c>
       <c r="C25" t="n">
-        <v>0.72761</v>
+        <v>0.67585</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -2383,10 +2383,10 @@
         <v>0.0402543979061875</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00211</v>
+        <v>0.00061</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07793</v>
+        <v>0.02676</v>
       </c>
     </row>
     <row r="27">
@@ -2397,7 +2397,7 @@
         <v>-0.0109860970038367</v>
       </c>
       <c r="C27" t="n">
-        <v>0.36685</v>
+        <v>0.37077</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -2411,10 +2411,10 @@
         <v>-0.028092925689585</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00236</v>
+        <v>0.00423</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08492</v>
+        <v>0.16063</v>
       </c>
     </row>
     <row r="29">
@@ -2425,7 +2425,7 @@
         <v>0.0428517644614943</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07579</v>
+        <v>0.07487</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -2439,10 +2439,10 @@
         <v>0.0577537388233724</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00616</v>
+        <v>0.00545</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2033</v>
+        <v>0.20147</v>
       </c>
     </row>
     <row r="31">
@@ -2453,10 +2453,10 @@
         <v>0.0575510842287388</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00002</v>
+        <v>0.00001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00084</v>
+        <v>0.00073</v>
       </c>
     </row>
     <row r="32">
@@ -2467,7 +2467,7 @@
         <v>0.0224343766344586</v>
       </c>
       <c r="C32" t="n">
-        <v>0.32269</v>
+        <v>0.30403</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -2481,7 +2481,7 @@
         <v>-0.000279277433047453</v>
       </c>
       <c r="C33" t="n">
-        <v>0.22772</v>
+        <v>0.95814</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -2495,7 +2495,7 @@
         <v>-0.0262677071673841</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07935</v>
+        <v>0.07716</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -2509,10 +2509,10 @@
         <v>-0.0112491983913675</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.06324</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2523,10 +2523,10 @@
         <v>-0.0194232740666462</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00058</v>
+        <v>0.00733</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02447</v>
+        <v>0.24905</v>
       </c>
     </row>
     <row r="37">
@@ -2537,7 +2537,7 @@
         <v>0.0667825296559452</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0666</v>
+        <v>0.06492</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -2551,10 +2551,10 @@
         <v>-0.00793458800780511</v>
       </c>
       <c r="C38" t="n">
-        <v>0.02542</v>
+        <v>0.20759</v>
       </c>
       <c r="D38" t="n">
-        <v>0.76263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2565,10 +2565,10 @@
         <v>0.0225501881970011</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01503</v>
+        <v>0.01957</v>
       </c>
       <c r="D39" t="n">
-        <v>0.46596</v>
+        <v>0.62628</v>
       </c>
     </row>
     <row r="40">
@@ -2579,7 +2579,7 @@
         <v>0.00737565007836061</v>
       </c>
       <c r="C40" t="n">
-        <v>0.53609</v>
+        <v>0.51114</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -2593,7 +2593,7 @@
         <v>0.00909498618829641</v>
       </c>
       <c r="C41" t="n">
-        <v>0.97703</v>
+        <v>0.22956</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>0.0000123614232079294</v>
       </c>
       <c r="C42" t="n">
-        <v>0.97367</v>
+        <v>0.99982</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -2621,7 +2621,7 @@
         <v>-0.012740942720297</v>
       </c>
       <c r="C43" t="n">
-        <v>0.17165</v>
+        <v>0.25044</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -2635,10 +2635,10 @@
         <v>0.0890505721558464</v>
       </c>
       <c r="C44" t="n">
-        <v>0.00104</v>
+        <v>0.00101</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0415</v>
+        <v>0.04359</v>
       </c>
     </row>
     <row r="45">
@@ -2649,10 +2649,10 @@
         <v>-0.0312885350150348</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00019</v>
+        <v>0.00038</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0082</v>
+        <v>0.0176</v>
       </c>
     </row>
     <row r="46">
@@ -2663,10 +2663,10 @@
         <v>0.015338810358917</v>
       </c>
       <c r="C46" t="n">
-        <v>0.99307</v>
+        <v>0.0068</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0.24148</v>
       </c>
     </row>
     <row r="47">
@@ -2677,10 +2677,10 @@
         <v>0.0603851095198821</v>
       </c>
       <c r="C47" t="n">
-        <v>0.00014</v>
+        <v>0.00008</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00636</v>
+        <v>0.00391</v>
       </c>
     </row>
     <row r="48">
@@ -2691,7 +2691,7 @@
         <v>-0.0216951805258832</v>
       </c>
       <c r="C48" t="n">
-        <v>0.38785</v>
+        <v>0.38961</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -2705,7 +2705,7 @@
         <v>0.00528449618882187</v>
       </c>
       <c r="C49" t="n">
-        <v>0.74153</v>
+        <v>0.55441</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -2719,10 +2719,10 @@
         <v>0.0217116618052079</v>
       </c>
       <c r="C50" t="n">
-        <v>0.05009</v>
+        <v>0.02509</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.77787</v>
       </c>
     </row>
     <row r="51">
@@ -2736,7 +2736,7 @@
         <v>0.00001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00047</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="52">
@@ -2747,10 +2747,10 @@
         <v>0.0352879993677688</v>
       </c>
       <c r="C52" t="n">
-        <v>0.00453</v>
+        <v>0.0014</v>
       </c>
       <c r="D52" t="n">
-        <v>0.15405</v>
+        <v>0.05726</v>
       </c>
     </row>
     <row r="53">
@@ -2761,10 +2761,10 @@
         <v>0.107076230188292</v>
       </c>
       <c r="C53" t="n">
-        <v>0.00024</v>
+        <v>0.00025</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01047</v>
+        <v>0.01184</v>
       </c>
     </row>
   </sheetData>
